--- a/dataset/sql_datasets/coaches.xlsx
+++ b/dataset/sql_datasets/coaches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D1D5D-3BBA-405D-A288-A8EC53DBF591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11EECDD-AB37-4791-A946-E30996EF50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{4B29E313-D435-4720-8A30-D6FBD4C3D91B}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11325" xr2:uid="{4B29E313-D435-4720-8A30-D6FBD4C3D91B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B2DFD4-62D0-40CB-A5AE-5FE81BA3F2E6}">
-  <dimension ref="A1:B527"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1004,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6074</v>
+        <v>6075</v>
       </c>
       <c r="B77">
         <v>78</v>
@@ -1016,87 +1012,87 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6075</v>
+        <v>6077</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6076</v>
+        <v>6077</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6076</v>
+        <v>6078</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6077</v>
+        <v>6079</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6077</v>
+        <v>6080</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6078</v>
+        <v>6081</v>
       </c>
       <c r="B83">
-        <v>166</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6079</v>
+        <v>6081</v>
       </c>
       <c r="B84">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6080</v>
+        <v>6082</v>
       </c>
       <c r="B85">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="B86">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6081</v>
+        <v>6083</v>
       </c>
       <c r="B87">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="B88">
         <v>79</v>
@@ -1104,7 +1100,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="B89">
         <v>80</v>
@@ -1112,55 +1108,55 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6083</v>
+        <v>6085</v>
       </c>
       <c r="B90">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6084</v>
+        <v>6086</v>
       </c>
       <c r="B91">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6084</v>
+        <v>6086</v>
       </c>
       <c r="B92">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6085</v>
+        <v>6087</v>
       </c>
       <c r="B93">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6086</v>
+        <v>6088</v>
       </c>
       <c r="B94">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6086</v>
+        <v>6089</v>
       </c>
       <c r="B95">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6087</v>
+        <v>6090</v>
       </c>
       <c r="B96">
         <v>22</v>
@@ -1168,127 +1164,127 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6088</v>
+        <v>6090</v>
       </c>
       <c r="B97">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6089</v>
+        <v>6091</v>
       </c>
       <c r="B98">
-        <v>165</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6090</v>
+        <v>6092</v>
       </c>
       <c r="B99">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6090</v>
+        <v>6092</v>
       </c>
       <c r="B100">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6091</v>
+        <v>6093</v>
       </c>
       <c r="B101">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6092</v>
+        <v>6094</v>
       </c>
       <c r="B102">
-        <v>163</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6092</v>
+        <v>6095</v>
       </c>
       <c r="B103">
-        <v>164</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6093</v>
+        <v>6096</v>
       </c>
       <c r="B104">
-        <v>159</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6094</v>
+        <v>6097</v>
       </c>
       <c r="B105">
-        <v>212</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6095</v>
+        <v>6098</v>
       </c>
       <c r="B106">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6096</v>
+        <v>6099</v>
       </c>
       <c r="B107">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6097</v>
+        <v>6100</v>
       </c>
       <c r="B108">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6098</v>
+        <v>6101</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6099</v>
+        <v>6102</v>
       </c>
       <c r="B110">
-        <v>211</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6100</v>
+        <v>6102</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6101</v>
+        <v>6103</v>
       </c>
       <c r="B112">
         <v>304</v>
@@ -1296,135 +1292,135 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>6102</v>
+        <v>6104</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6102</v>
+        <v>6105</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>6103</v>
+        <v>6105</v>
       </c>
       <c r="B115">
-        <v>304</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6104</v>
+        <v>6106</v>
       </c>
       <c r="B116">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6105</v>
+        <v>6108</v>
       </c>
       <c r="B117">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6105</v>
+        <v>6108</v>
       </c>
       <c r="B118">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6106</v>
+        <v>6109</v>
       </c>
       <c r="B119">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6107</v>
+        <v>6110</v>
       </c>
       <c r="B120">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6107</v>
+        <v>6111</v>
       </c>
       <c r="B121">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6108</v>
+        <v>6112</v>
       </c>
       <c r="B122">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6108</v>
+        <v>6113</v>
       </c>
       <c r="B123">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6109</v>
+        <v>6113</v>
       </c>
       <c r="B124">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>6110</v>
+        <v>6114</v>
       </c>
       <c r="B125">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6111</v>
+        <v>6114</v>
       </c>
       <c r="B126">
-        <v>303</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6112</v>
+        <v>6115</v>
       </c>
       <c r="B127">
-        <v>211</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6113</v>
+        <v>6115</v>
       </c>
       <c r="B128">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6113</v>
+        <v>6117</v>
       </c>
       <c r="B129">
         <v>80</v>
@@ -1432,111 +1428,111 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6114</v>
+        <v>6118</v>
       </c>
       <c r="B130">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6114</v>
+        <v>6118</v>
       </c>
       <c r="B131">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6115</v>
+        <v>6119</v>
       </c>
       <c r="B132">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>6115</v>
+        <v>6120</v>
       </c>
       <c r="B133">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6116</v>
+        <v>6121</v>
       </c>
       <c r="B134">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6117</v>
+        <v>6121</v>
       </c>
       <c r="B135">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6118</v>
+        <v>6122</v>
       </c>
       <c r="B136">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>6118</v>
+        <v>6123</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6119</v>
+        <v>6124</v>
       </c>
       <c r="B138">
-        <v>305</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6120</v>
+        <v>6124</v>
       </c>
       <c r="B139">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6121</v>
+        <v>6125</v>
       </c>
       <c r="B140">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6121</v>
+        <v>6125</v>
       </c>
       <c r="B141">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6122</v>
+        <v>6126</v>
       </c>
       <c r="B142">
-        <v>79</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6123</v>
+        <v>6127</v>
       </c>
       <c r="B143">
         <v>303</v>
@@ -1544,23 +1540,23 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6124</v>
+        <v>6128</v>
       </c>
       <c r="B144">
-        <v>79</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>6124</v>
+        <v>6130</v>
       </c>
       <c r="B145">
-        <v>80</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6125</v>
+        <v>6131</v>
       </c>
       <c r="B146">
         <v>79</v>
@@ -1568,7 +1564,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6125</v>
+        <v>6131</v>
       </c>
       <c r="B147">
         <v>80</v>
@@ -1576,47 +1572,47 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6126</v>
+        <v>6132</v>
       </c>
       <c r="B148">
-        <v>303</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6127</v>
+        <v>6133</v>
       </c>
       <c r="B149">
-        <v>303</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6128</v>
+        <v>6134</v>
       </c>
       <c r="B150">
-        <v>303</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6129</v>
+        <v>6135</v>
       </c>
       <c r="B151">
-        <v>212</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6130</v>
+        <v>6136</v>
       </c>
       <c r="B152">
-        <v>212</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6131</v>
+        <v>6137</v>
       </c>
       <c r="B153">
         <v>79</v>
@@ -1624,7 +1620,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6131</v>
+        <v>6137</v>
       </c>
       <c r="B154">
         <v>80</v>
@@ -1632,199 +1628,199 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6132</v>
+        <v>6138</v>
       </c>
       <c r="B155">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6133</v>
+        <v>6138</v>
       </c>
       <c r="B156">
-        <v>166</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6134</v>
+        <v>6139</v>
       </c>
       <c r="B157">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6135</v>
+        <v>6140</v>
       </c>
       <c r="B158">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>6136</v>
+        <v>6142</v>
       </c>
       <c r="B159">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6137</v>
+        <v>6142</v>
       </c>
       <c r="B160">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6137</v>
+        <v>6143</v>
       </c>
       <c r="B161">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6138</v>
+        <v>6144</v>
       </c>
       <c r="B162">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6138</v>
+        <v>6144</v>
       </c>
       <c r="B163">
-        <v>303</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6139</v>
+        <v>6145</v>
       </c>
       <c r="B164">
-        <v>302</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6140</v>
+        <v>6146</v>
       </c>
       <c r="B165">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6141</v>
+        <v>6146</v>
       </c>
       <c r="B166">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6142</v>
+        <v>6147</v>
       </c>
       <c r="B167">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6142</v>
+        <v>6148</v>
       </c>
       <c r="B168">
-        <v>80</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6143</v>
+        <v>6149</v>
       </c>
       <c r="B169">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>6144</v>
+        <v>6149</v>
       </c>
       <c r="B170">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>6144</v>
+        <v>6150</v>
       </c>
       <c r="B171">
-        <v>80</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>6145</v>
+        <v>6151</v>
       </c>
       <c r="B172">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6146</v>
+        <v>6152</v>
       </c>
       <c r="B173">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6146</v>
+        <v>6152</v>
       </c>
       <c r="B174">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>6147</v>
+        <v>6153</v>
       </c>
       <c r="B175">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6148</v>
+        <v>6154</v>
       </c>
       <c r="B176">
-        <v>212</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6149</v>
+        <v>6154</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>6149</v>
+        <v>6155</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>6150</v>
+        <v>6156</v>
       </c>
       <c r="B179">
         <v>212</v>
@@ -1832,191 +1828,191 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6151</v>
+        <v>6157</v>
       </c>
       <c r="B180">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>6152</v>
+        <v>6158</v>
       </c>
       <c r="B181">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>6152</v>
+        <v>6159</v>
       </c>
       <c r="B182">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>6153</v>
+        <v>6160</v>
       </c>
       <c r="B183">
-        <v>80</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>6154</v>
+        <v>6161</v>
       </c>
       <c r="B184">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>6154</v>
+        <v>6162</v>
       </c>
       <c r="B185">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>6155</v>
+        <v>6162</v>
       </c>
       <c r="B186">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>6156</v>
+        <v>6163</v>
       </c>
       <c r="B187">
-        <v>212</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>6157</v>
+        <v>6163</v>
       </c>
       <c r="B188">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>6158</v>
+        <v>6164</v>
       </c>
       <c r="B189">
-        <v>159</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>6159</v>
+        <v>6165</v>
       </c>
       <c r="B190">
-        <v>302</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>6160</v>
+        <v>6166</v>
       </c>
       <c r="B191">
-        <v>305</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>6161</v>
+        <v>6167</v>
       </c>
       <c r="B192">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>6162</v>
+        <v>6168</v>
       </c>
       <c r="B193">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>6162</v>
+        <v>6169</v>
       </c>
       <c r="B194">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>6163</v>
+        <v>6169</v>
       </c>
       <c r="B195">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>6163</v>
+        <v>6170</v>
       </c>
       <c r="B196">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>6164</v>
+        <v>6171</v>
       </c>
       <c r="B197">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>6165</v>
+        <v>6172</v>
       </c>
       <c r="B198">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>6166</v>
+        <v>6172</v>
       </c>
       <c r="B199">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>6167</v>
+        <v>6173</v>
       </c>
       <c r="B200">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>6168</v>
+        <v>6174</v>
       </c>
       <c r="B201">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>6169</v>
+        <v>6174</v>
       </c>
       <c r="B202">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>6169</v>
+        <v>6175</v>
       </c>
       <c r="B203">
         <v>23</v>
@@ -2024,247 +2020,247 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>6170</v>
+        <v>6176</v>
       </c>
       <c r="B204">
-        <v>303</v>
+        <v>164</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>6171</v>
+        <v>6177</v>
       </c>
       <c r="B205">
-        <v>160</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>6172</v>
+        <v>6177</v>
       </c>
       <c r="B206">
-        <v>163</v>
+        <v>303</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>6172</v>
+        <v>6178</v>
       </c>
       <c r="B207">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>6173</v>
+        <v>6178</v>
       </c>
       <c r="B208">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>6174</v>
+        <v>6179</v>
       </c>
       <c r="B209">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>6174</v>
+        <v>6180</v>
       </c>
       <c r="B210">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>6175</v>
+        <v>6180</v>
       </c>
       <c r="B211">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>6176</v>
+        <v>6181</v>
       </c>
       <c r="B212">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>6177</v>
+        <v>6182</v>
       </c>
       <c r="B213">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>6177</v>
+        <v>6182</v>
       </c>
       <c r="B214">
-        <v>303</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>6178</v>
+        <v>6183</v>
       </c>
       <c r="B215">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>6178</v>
+        <v>6183</v>
       </c>
       <c r="B216">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>6179</v>
+        <v>6184</v>
       </c>
       <c r="B217">
-        <v>165</v>
+        <v>303</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>6180</v>
+        <v>6185</v>
       </c>
       <c r="B218">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>6180</v>
+        <v>6186</v>
       </c>
       <c r="B219">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>6181</v>
+        <v>6186</v>
       </c>
       <c r="B220">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>6182</v>
+        <v>6187</v>
       </c>
       <c r="B221">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>6182</v>
+        <v>6187</v>
       </c>
       <c r="B222">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>6183</v>
+        <v>6188</v>
       </c>
       <c r="B223">
-        <v>159</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>6183</v>
+        <v>6189</v>
       </c>
       <c r="B224">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>6184</v>
+        <v>6190</v>
       </c>
       <c r="B225">
-        <v>303</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>6185</v>
+        <v>6191</v>
       </c>
       <c r="B226">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>6186</v>
+        <v>6191</v>
       </c>
       <c r="B227">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>6186</v>
+        <v>6192</v>
       </c>
       <c r="B228">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>6187</v>
+        <v>6193</v>
       </c>
       <c r="B229">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>6187</v>
+        <v>6194</v>
       </c>
       <c r="B230">
-        <v>160</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>6188</v>
+        <v>6194</v>
       </c>
       <c r="B231">
-        <v>78</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>6189</v>
+        <v>6195</v>
       </c>
       <c r="B232">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>6190</v>
+        <v>6196</v>
       </c>
       <c r="B233">
-        <v>160</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>6191</v>
+        <v>6197</v>
       </c>
       <c r="B234">
         <v>22</v>
@@ -2272,7 +2268,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>6191</v>
+        <v>6197</v>
       </c>
       <c r="B235">
         <v>23</v>
@@ -2280,279 +2276,279 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>6192</v>
+        <v>6198</v>
       </c>
       <c r="B236">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>6193</v>
+        <v>6199</v>
       </c>
       <c r="B237">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>6194</v>
+        <v>6199</v>
       </c>
       <c r="B238">
-        <v>302</v>
+        <v>160</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>6194</v>
+        <v>6200</v>
       </c>
       <c r="B239">
-        <v>303</v>
+        <v>165</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>6195</v>
+        <v>6201</v>
       </c>
       <c r="B240">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>6196</v>
+        <v>6202</v>
       </c>
       <c r="B241">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>6197</v>
+        <v>6202</v>
       </c>
       <c r="B242">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>6197</v>
+        <v>6203</v>
       </c>
       <c r="B243">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>6198</v>
+        <v>6203</v>
       </c>
       <c r="B244">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>6199</v>
+        <v>6204</v>
       </c>
       <c r="B245">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>6199</v>
+        <v>6204</v>
       </c>
       <c r="B246">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>6200</v>
+        <v>6205</v>
       </c>
       <c r="B247">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>6201</v>
+        <v>6205</v>
       </c>
       <c r="B248">
-        <v>305</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>6202</v>
+        <v>6206</v>
       </c>
       <c r="B249">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>6202</v>
+        <v>6207</v>
       </c>
       <c r="B250">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>6203</v>
+        <v>6208</v>
       </c>
       <c r="B251">
-        <v>159</v>
+        <v>303</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>6203</v>
+        <v>6209</v>
       </c>
       <c r="B252">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>6204</v>
+        <v>6209</v>
       </c>
       <c r="B253">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>6204</v>
+        <v>6210</v>
       </c>
       <c r="B254">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>6205</v>
+        <v>6210</v>
       </c>
       <c r="B255">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>6205</v>
+        <v>6211</v>
       </c>
       <c r="B256">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>6206</v>
+        <v>6211</v>
       </c>
       <c r="B257">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>6207</v>
+        <v>6212</v>
       </c>
       <c r="B258">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>6208</v>
+        <v>6213</v>
       </c>
       <c r="B259">
-        <v>303</v>
+        <v>159</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>6209</v>
+        <v>6214</v>
       </c>
       <c r="B260">
-        <v>159</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>6209</v>
+        <v>6215</v>
       </c>
       <c r="B261">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>6210</v>
+        <v>6216</v>
       </c>
       <c r="B262">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>6210</v>
+        <v>6217</v>
       </c>
       <c r="B263">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>6211</v>
+        <v>6218</v>
       </c>
       <c r="B264">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>6211</v>
+        <v>6219</v>
       </c>
       <c r="B265">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>6212</v>
+        <v>6219</v>
       </c>
       <c r="B266">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>6213</v>
+        <v>6220</v>
       </c>
       <c r="B267">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>6214</v>
+        <v>6221</v>
       </c>
       <c r="B268">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>6215</v>
+        <v>6221</v>
       </c>
       <c r="B269">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>6216</v>
+        <v>6222</v>
       </c>
       <c r="B270">
         <v>166</v>
@@ -2560,167 +2556,167 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>6217</v>
+        <v>6223</v>
       </c>
       <c r="B271">
-        <v>303</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>6218</v>
+        <v>6224</v>
       </c>
       <c r="B272">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>6219</v>
+        <v>6225</v>
       </c>
       <c r="B273">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>6219</v>
+        <v>6225</v>
       </c>
       <c r="B274">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>6220</v>
+        <v>6226</v>
       </c>
       <c r="B275">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>6221</v>
+        <v>6227</v>
       </c>
       <c r="B276">
-        <v>79</v>
+        <v>165</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>6221</v>
+        <v>6228</v>
       </c>
       <c r="B277">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>6222</v>
+        <v>6228</v>
       </c>
       <c r="B278">
-        <v>166</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>6223</v>
+        <v>6229</v>
       </c>
       <c r="B279">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>6224</v>
+        <v>6230</v>
       </c>
       <c r="B280">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>6225</v>
+        <v>6230</v>
       </c>
       <c r="B281">
-        <v>159</v>
+        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>6225</v>
+        <v>6231</v>
       </c>
       <c r="B282">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>6226</v>
+        <v>6232</v>
       </c>
       <c r="B283">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>6227</v>
+        <v>6233</v>
       </c>
       <c r="B284">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>6228</v>
+        <v>6234</v>
       </c>
       <c r="B285">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>6228</v>
+        <v>6234</v>
       </c>
       <c r="B286">
-        <v>303</v>
+        <v>23</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>6229</v>
+        <v>6235</v>
       </c>
       <c r="B287">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>6230</v>
+        <v>6236</v>
       </c>
       <c r="B288">
-        <v>302</v>
+        <v>160</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>6230</v>
+        <v>6237</v>
       </c>
       <c r="B289">
-        <v>303</v>
+        <v>211</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>6231</v>
+        <v>6238</v>
       </c>
       <c r="B290">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>6232</v>
+        <v>6239</v>
       </c>
       <c r="B291">
         <v>159</v>
@@ -2728,455 +2724,455 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>6233</v>
+        <v>6239</v>
       </c>
       <c r="B292">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>6234</v>
+        <v>6240</v>
       </c>
       <c r="B293">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>6234</v>
+        <v>6241</v>
       </c>
       <c r="B294">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>6235</v>
+        <v>6241</v>
       </c>
       <c r="B295">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>6236</v>
+        <v>6242</v>
       </c>
       <c r="B296">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>6237</v>
+        <v>6243</v>
       </c>
       <c r="B297">
-        <v>211</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>6238</v>
+        <v>6243</v>
       </c>
       <c r="B298">
-        <v>164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>6239</v>
+        <v>6244</v>
       </c>
       <c r="B299">
-        <v>159</v>
+        <v>305</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>6239</v>
+        <v>6245</v>
       </c>
       <c r="B300">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>6240</v>
+        <v>6245</v>
       </c>
       <c r="B301">
-        <v>211</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>6241</v>
+        <v>6246</v>
       </c>
       <c r="B302">
-        <v>159</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>6241</v>
+        <v>6246</v>
       </c>
       <c r="B303">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>6242</v>
+        <v>6247</v>
       </c>
       <c r="B304">
-        <v>166</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>6243</v>
+        <v>6248</v>
       </c>
       <c r="B305">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>6243</v>
+        <v>6248</v>
       </c>
       <c r="B306">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6244</v>
+        <v>6249</v>
       </c>
       <c r="B307">
-        <v>305</v>
+        <v>211</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>6245</v>
+        <v>6250</v>
       </c>
       <c r="B308">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>6245</v>
+        <v>6251</v>
       </c>
       <c r="B309">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>6246</v>
+        <v>6251</v>
       </c>
       <c r="B310">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>6246</v>
+        <v>6252</v>
       </c>
       <c r="B311">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>6247</v>
+        <v>6252</v>
       </c>
       <c r="B312">
-        <v>77</v>
+        <v>160</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>6248</v>
+        <v>6253</v>
       </c>
       <c r="B313">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>6248</v>
+        <v>6254</v>
       </c>
       <c r="B314">
-        <v>303</v>
+        <v>160</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>6249</v>
+        <v>6255</v>
       </c>
       <c r="B315">
-        <v>211</v>
+        <v>80</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>6250</v>
+        <v>6256</v>
       </c>
       <c r="B316">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6251</v>
+        <v>6257</v>
       </c>
       <c r="B317">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6251</v>
+        <v>6257</v>
       </c>
       <c r="B318">
-        <v>160</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>6252</v>
+        <v>6258</v>
       </c>
       <c r="B319">
-        <v>159</v>
+        <v>302</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>6252</v>
+        <v>6258</v>
       </c>
       <c r="B320">
-        <v>160</v>
+        <v>303</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>6253</v>
+        <v>6259</v>
       </c>
       <c r="B321">
-        <v>304</v>
+        <v>211</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>6254</v>
+        <v>6260</v>
       </c>
       <c r="B322">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>6255</v>
+        <v>6261</v>
       </c>
       <c r="B323">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6256</v>
+        <v>6262</v>
       </c>
       <c r="B324">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>6257</v>
+        <v>6263</v>
       </c>
       <c r="B325">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>6257</v>
+        <v>6263</v>
       </c>
       <c r="B326">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>6258</v>
+        <v>6264</v>
       </c>
       <c r="B327">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>6258</v>
+        <v>6264</v>
       </c>
       <c r="B328">
-        <v>303</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6259</v>
+        <v>6265</v>
       </c>
       <c r="B329">
-        <v>211</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>6260</v>
+        <v>6266</v>
       </c>
       <c r="B330">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>6261</v>
+        <v>6266</v>
       </c>
       <c r="B331">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>6262</v>
+        <v>6267</v>
       </c>
       <c r="B332">
-        <v>302</v>
+        <v>159</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6263</v>
+        <v>6267</v>
       </c>
       <c r="B333">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>6263</v>
+        <v>6268</v>
       </c>
       <c r="B334">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>6264</v>
+        <v>6268</v>
       </c>
       <c r="B335">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>6264</v>
+        <v>6269</v>
       </c>
       <c r="B336">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>6265</v>
+        <v>6270</v>
       </c>
       <c r="B337">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>6266</v>
+        <v>6270</v>
       </c>
       <c r="B338">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>6266</v>
+        <v>6271</v>
       </c>
       <c r="B339">
-        <v>303</v>
+        <v>166</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>6267</v>
+        <v>6272</v>
       </c>
       <c r="B340">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>6267</v>
+        <v>6273</v>
       </c>
       <c r="B341">
-        <v>160</v>
+        <v>302</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>6268</v>
+        <v>6273</v>
       </c>
       <c r="B342">
-        <v>159</v>
+        <v>303</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>6268</v>
+        <v>6274</v>
       </c>
       <c r="B343">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>6269</v>
+        <v>6276</v>
       </c>
       <c r="B344">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>6270</v>
+        <v>6276</v>
       </c>
       <c r="B345">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>6270</v>
+        <v>6277</v>
       </c>
       <c r="B346">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6271</v>
+        <v>6277</v>
       </c>
       <c r="B347">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>6272</v>
+        <v>6278</v>
       </c>
       <c r="B348">
         <v>164</v>
@@ -3184,95 +3180,95 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>6273</v>
+        <v>6279</v>
       </c>
       <c r="B349">
-        <v>302</v>
+        <v>160</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>6273</v>
+        <v>6280</v>
       </c>
       <c r="B350">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>6274</v>
+        <v>6281</v>
       </c>
       <c r="B351">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>6275</v>
+        <v>6281</v>
       </c>
       <c r="B352">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>6276</v>
+        <v>6282</v>
       </c>
       <c r="B353">
-        <v>159</v>
+        <v>211</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>6276</v>
+        <v>6283</v>
       </c>
       <c r="B354">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>6277</v>
+        <v>6283</v>
       </c>
       <c r="B355">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>6277</v>
+        <v>6284</v>
       </c>
       <c r="B356">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>6278</v>
+        <v>6284</v>
       </c>
       <c r="B357">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>6279</v>
+        <v>6285</v>
       </c>
       <c r="B358">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>6280</v>
+        <v>6286</v>
       </c>
       <c r="B359">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>6281</v>
+        <v>6287</v>
       </c>
       <c r="B360">
         <v>159</v>
@@ -3280,7 +3276,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>6281</v>
+        <v>6287</v>
       </c>
       <c r="B361">
         <v>160</v>
@@ -3288,127 +3284,127 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>6282</v>
+        <v>6288</v>
       </c>
       <c r="B362">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>6283</v>
+        <v>6289</v>
       </c>
       <c r="B363">
-        <v>159</v>
+        <v>302</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6283</v>
+        <v>6289</v>
       </c>
       <c r="B364">
-        <v>160</v>
+        <v>303</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>6284</v>
+        <v>6290</v>
       </c>
       <c r="B365">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6284</v>
+        <v>6291</v>
       </c>
       <c r="B366">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6285</v>
+        <v>6292</v>
       </c>
       <c r="B367">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>6286</v>
+        <v>6292</v>
       </c>
       <c r="B368">
-        <v>78</v>
+        <v>160</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>6287</v>
+        <v>6293</v>
       </c>
       <c r="B369">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>6287</v>
+        <v>6294</v>
       </c>
       <c r="B370">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6288</v>
+        <v>6295</v>
       </c>
       <c r="B371">
-        <v>212</v>
+        <v>305</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6289</v>
+        <v>6296</v>
       </c>
       <c r="B372">
-        <v>302</v>
+        <v>23</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>6289</v>
+        <v>6297</v>
       </c>
       <c r="B373">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>6290</v>
+        <v>6297</v>
       </c>
       <c r="B374">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>6291</v>
+        <v>6298</v>
       </c>
       <c r="B375">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>6292</v>
+        <v>6299</v>
       </c>
       <c r="B376">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>6292</v>
+        <v>6300</v>
       </c>
       <c r="B377">
         <v>160</v>
@@ -3416,7 +3412,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>6293</v>
+        <v>6301</v>
       </c>
       <c r="B378">
         <v>165</v>
@@ -3424,183 +3420,183 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>6294</v>
+        <v>6302</v>
       </c>
       <c r="B379">
-        <v>80</v>
+        <v>305</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>6295</v>
+        <v>6303</v>
       </c>
       <c r="B380">
-        <v>305</v>
+        <v>80</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>6296</v>
+        <v>6304</v>
       </c>
       <c r="B381">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6297</v>
+        <v>6305</v>
       </c>
       <c r="B382">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>6297</v>
+        <v>6306</v>
       </c>
       <c r="B383">
-        <v>80</v>
+        <v>304</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6298</v>
+        <v>6307</v>
       </c>
       <c r="B384">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>6299</v>
+        <v>6308</v>
       </c>
       <c r="B385">
-        <v>166</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>6300</v>
+        <v>6309</v>
       </c>
       <c r="B386">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>6301</v>
+        <v>6310</v>
       </c>
       <c r="B387">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>6302</v>
+        <v>6311</v>
       </c>
       <c r="B388">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>6303</v>
+        <v>6311</v>
       </c>
       <c r="B389">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>6304</v>
+        <v>6312</v>
       </c>
       <c r="B390">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>6305</v>
+        <v>6313</v>
       </c>
       <c r="B391">
-        <v>80</v>
+        <v>166</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6306</v>
+        <v>6314</v>
       </c>
       <c r="B392">
-        <v>304</v>
+        <v>79</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6307</v>
+        <v>6314</v>
       </c>
       <c r="B393">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>6308</v>
+        <v>6315</v>
       </c>
       <c r="B394">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>6309</v>
+        <v>6317</v>
       </c>
       <c r="B395">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>6310</v>
+        <v>6317</v>
       </c>
       <c r="B396">
-        <v>212</v>
+        <v>303</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>6311</v>
+        <v>6319</v>
       </c>
       <c r="B397">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>6311</v>
+        <v>6319</v>
       </c>
       <c r="B398">
-        <v>303</v>
+        <v>23</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>6312</v>
+        <v>6320</v>
       </c>
       <c r="B399">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6313</v>
+        <v>6320</v>
       </c>
       <c r="B400">
-        <v>166</v>
+        <v>303</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>6314</v>
+        <v>6321</v>
       </c>
       <c r="B401">
         <v>79</v>
@@ -3608,7 +3604,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>6314</v>
+        <v>6321</v>
       </c>
       <c r="B402">
         <v>80</v>
@@ -3616,191 +3612,191 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>6315</v>
+        <v>6322</v>
       </c>
       <c r="B403">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6316</v>
+        <v>6323</v>
       </c>
       <c r="B404">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>6316</v>
+        <v>6323</v>
       </c>
       <c r="B405">
-        <v>303</v>
+        <v>80</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>6317</v>
+        <v>6324</v>
       </c>
       <c r="B406">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>6317</v>
+        <v>6324</v>
       </c>
       <c r="B407">
-        <v>303</v>
+        <v>23</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>6318</v>
+        <v>6325</v>
       </c>
       <c r="B408">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>6318</v>
+        <v>6325</v>
       </c>
       <c r="B409">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>6319</v>
+        <v>6326</v>
       </c>
       <c r="B410">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>6319</v>
+        <v>6326</v>
       </c>
       <c r="B411">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>6320</v>
+        <v>6327</v>
       </c>
       <c r="B412">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>6320</v>
+        <v>6328</v>
       </c>
       <c r="B413">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>6321</v>
+        <v>6328</v>
       </c>
       <c r="B414">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>6321</v>
+        <v>6329</v>
       </c>
       <c r="B415">
-        <v>80</v>
+        <v>166</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>6322</v>
+        <v>6330</v>
       </c>
       <c r="B416">
-        <v>22</v>
+        <v>305</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>6323</v>
+        <v>6331</v>
       </c>
       <c r="B417">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>6323</v>
+        <v>6331</v>
       </c>
       <c r="B418">
-        <v>80</v>
+        <v>212</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>6324</v>
+        <v>6332</v>
       </c>
       <c r="B419">
-        <v>22</v>
+        <v>160</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>6324</v>
+        <v>6333</v>
       </c>
       <c r="B420">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>6325</v>
+        <v>6333</v>
       </c>
       <c r="B421">
-        <v>79</v>
+        <v>303</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>6325</v>
+        <v>6334</v>
       </c>
       <c r="B422">
-        <v>80</v>
+        <v>164</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>6326</v>
+        <v>6335</v>
       </c>
       <c r="B423">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>6326</v>
+        <v>6336</v>
       </c>
       <c r="B424">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>6327</v>
+        <v>6337</v>
       </c>
       <c r="B425">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>6328</v>
+        <v>6338</v>
       </c>
       <c r="B426">
         <v>79</v>
@@ -3808,47 +3804,47 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>6328</v>
+        <v>6339</v>
       </c>
       <c r="B427">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>6329</v>
+        <v>6340</v>
       </c>
       <c r="B428">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>6330</v>
+        <v>6342</v>
       </c>
       <c r="B429">
-        <v>305</v>
+        <v>79</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>6331</v>
+        <v>6342</v>
       </c>
       <c r="B430">
-        <v>211</v>
+        <v>80</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>6331</v>
+        <v>6343</v>
       </c>
       <c r="B431">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>6332</v>
+        <v>6343</v>
       </c>
       <c r="B432">
         <v>160</v>
@@ -3856,79 +3852,79 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>6333</v>
+        <v>6344</v>
       </c>
       <c r="B433">
-        <v>302</v>
+        <v>159</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>6333</v>
+        <v>6345</v>
       </c>
       <c r="B434">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>6334</v>
+        <v>6346</v>
       </c>
       <c r="B435">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>6335</v>
+        <v>6347</v>
       </c>
       <c r="B436">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>6336</v>
+        <v>6348</v>
       </c>
       <c r="B437">
-        <v>165</v>
+        <v>302</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>6337</v>
+        <v>6348</v>
       </c>
       <c r="B438">
-        <v>163</v>
+        <v>303</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>6338</v>
+        <v>6349</v>
       </c>
       <c r="B439">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>6339</v>
+        <v>6349</v>
       </c>
       <c r="B440">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>6340</v>
+        <v>6350</v>
       </c>
       <c r="B441">
-        <v>163</v>
+        <v>304</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>6341</v>
+        <v>6351</v>
       </c>
       <c r="B442">
         <v>79</v>
@@ -3936,7 +3932,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>6341</v>
+        <v>6351</v>
       </c>
       <c r="B443">
         <v>80</v>
@@ -3944,199 +3940,199 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>6342</v>
+        <v>6352</v>
       </c>
       <c r="B444">
-        <v>79</v>
+        <v>304</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>6342</v>
+        <v>6353</v>
       </c>
       <c r="B445">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>6343</v>
+        <v>6354</v>
       </c>
       <c r="B446">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>6343</v>
+        <v>6355</v>
       </c>
       <c r="B447">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>6344</v>
+        <v>6356</v>
       </c>
       <c r="B448">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>6345</v>
+        <v>6357</v>
       </c>
       <c r="B449">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>6346</v>
+        <v>6359</v>
       </c>
       <c r="B450">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>6347</v>
+        <v>6360</v>
       </c>
       <c r="B451">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>6348</v>
+        <v>6361</v>
       </c>
       <c r="B452">
-        <v>302</v>
+        <v>159</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>6348</v>
+        <v>6361</v>
       </c>
       <c r="B453">
-        <v>303</v>
+        <v>160</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>6349</v>
+        <v>6362</v>
       </c>
       <c r="B454">
-        <v>302</v>
+        <v>159</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>6349</v>
+        <v>6363</v>
       </c>
       <c r="B455">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>6350</v>
+        <v>6364</v>
       </c>
       <c r="B456">
-        <v>304</v>
+        <v>79</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>6351</v>
+        <v>6364</v>
       </c>
       <c r="B457">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>6351</v>
+        <v>6366</v>
       </c>
       <c r="B458">
-        <v>80</v>
+        <v>211</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>6352</v>
+        <v>6367</v>
       </c>
       <c r="B459">
-        <v>304</v>
+        <v>23</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>6353</v>
+        <v>6368</v>
       </c>
       <c r="B460">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>6354</v>
+        <v>6368</v>
       </c>
       <c r="B461">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>6355</v>
+        <v>6369</v>
       </c>
       <c r="B462">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>6356</v>
+        <v>6370</v>
       </c>
       <c r="B463">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>6357</v>
+        <v>6371</v>
       </c>
       <c r="B464">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>6358</v>
+        <v>6372</v>
       </c>
       <c r="B465">
-        <v>23</v>
+        <v>304</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>6359</v>
+        <v>6373</v>
       </c>
       <c r="B466">
-        <v>211</v>
+        <v>304</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>6360</v>
+        <v>6374</v>
       </c>
       <c r="B467">
-        <v>77</v>
+        <v>302</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>6361</v>
+        <v>6375</v>
       </c>
       <c r="B468">
         <v>159</v>
@@ -4144,111 +4140,111 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>6361</v>
+        <v>6376</v>
       </c>
       <c r="B469">
-        <v>160</v>
+        <v>305</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>6362</v>
+        <v>6377</v>
       </c>
       <c r="B470">
-        <v>159</v>
+        <v>302</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>6363</v>
+        <v>6377</v>
       </c>
       <c r="B471">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>6364</v>
+        <v>6378</v>
       </c>
       <c r="B472">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>6364</v>
+        <v>6379</v>
       </c>
       <c r="B473">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>6365</v>
+        <v>6380</v>
       </c>
       <c r="B474">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>6365</v>
+        <v>6380</v>
       </c>
       <c r="B475">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>6366</v>
+        <v>6381</v>
       </c>
       <c r="B476">
-        <v>211</v>
+        <v>79</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>6367</v>
+        <v>6381</v>
       </c>
       <c r="B477">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>6368</v>
+        <v>6382</v>
       </c>
       <c r="B478">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>6368</v>
+        <v>6383</v>
       </c>
       <c r="B479">
-        <v>80</v>
+        <v>304</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>6369</v>
+        <v>6384</v>
       </c>
       <c r="B480">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>6370</v>
+        <v>6388</v>
       </c>
       <c r="B481">
-        <v>78</v>
+        <v>304</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>6371</v>
+        <v>6389</v>
       </c>
       <c r="B482">
         <v>163</v>
@@ -4256,71 +4252,71 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>6372</v>
+        <v>6389</v>
       </c>
       <c r="B483">
-        <v>304</v>
+        <v>164</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>6373</v>
+        <v>6390</v>
       </c>
       <c r="B484">
-        <v>304</v>
+        <v>77</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>6374</v>
+        <v>6391</v>
       </c>
       <c r="B485">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>6375</v>
+        <v>6391</v>
       </c>
       <c r="B486">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>6376</v>
+        <v>6392</v>
       </c>
       <c r="B487">
-        <v>305</v>
+        <v>165</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>6377</v>
+        <v>6393</v>
       </c>
       <c r="B488">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>6377</v>
+        <v>6394</v>
       </c>
       <c r="B489">
-        <v>303</v>
+        <v>165</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>6378</v>
+        <v>6394</v>
       </c>
       <c r="B490">
-        <v>305</v>
+        <v>166</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>6379</v>
+        <v>6395</v>
       </c>
       <c r="B491">
         <v>159</v>
@@ -4328,63 +4324,63 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>6380</v>
+        <v>6396</v>
       </c>
       <c r="B492">
-        <v>302</v>
+        <v>165</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>6380</v>
+        <v>6396</v>
       </c>
       <c r="B493">
-        <v>303</v>
+        <v>166</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>6381</v>
+        <v>6397</v>
       </c>
       <c r="B494">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>6381</v>
+        <v>6398</v>
       </c>
       <c r="B495">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>6382</v>
+        <v>6399</v>
       </c>
       <c r="B496">
-        <v>166</v>
+        <v>302</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>6383</v>
+        <v>6399</v>
       </c>
       <c r="B497">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>6384</v>
+        <v>6400</v>
       </c>
       <c r="B498">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>6385</v>
+        <v>6401</v>
       </c>
       <c r="B499">
         <v>165</v>
@@ -4392,7 +4388,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>6385</v>
+        <v>6401</v>
       </c>
       <c r="B500">
         <v>166</v>
@@ -4400,223 +4396,31 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>6386</v>
+        <v>6402</v>
       </c>
       <c r="B501">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>6386</v>
+        <v>6402</v>
       </c>
       <c r="B502">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>6387</v>
+        <v>6403</v>
       </c>
       <c r="B503">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>6387</v>
-      </c>
-      <c r="B504">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>6388</v>
-      </c>
-      <c r="B505">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>6389</v>
-      </c>
-      <c r="B506">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507">
-        <v>6389</v>
-      </c>
-      <c r="B507">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>6390</v>
-      </c>
-      <c r="B508">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509">
-        <v>6391</v>
-      </c>
-      <c r="B509">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510">
-        <v>6391</v>
-      </c>
-      <c r="B510">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511">
-        <v>6392</v>
-      </c>
-      <c r="B511">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512">
-        <v>6393</v>
-      </c>
-      <c r="B512">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>6394</v>
-      </c>
-      <c r="B513">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>6394</v>
-      </c>
-      <c r="B514">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515">
-        <v>6395</v>
-      </c>
-      <c r="B515">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>6396</v>
-      </c>
-      <c r="B516">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>6396</v>
-      </c>
-      <c r="B517">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>6397</v>
-      </c>
-      <c r="B518">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>6398</v>
-      </c>
-      <c r="B519">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520">
-        <v>6399</v>
-      </c>
-      <c r="B520">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521">
-        <v>6399</v>
-      </c>
-      <c r="B521">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522">
-        <v>6400</v>
-      </c>
-      <c r="B522">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523">
-        <v>6401</v>
-      </c>
-      <c r="B523">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524">
-        <v>6401</v>
-      </c>
-      <c r="B524">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525">
-        <v>6402</v>
-      </c>
-      <c r="B525">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526">
-        <v>6402</v>
-      </c>
-      <c r="B526">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527">
-        <v>6403</v>
-      </c>
-      <c r="B527">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B527">
-    <sortCondition ref="A1:A527"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B503">
+    <sortCondition ref="A1:A503"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
